--- a/dataset/final_datasets/individual_discipline.xlsx
+++ b/dataset/final_datasets/individual_discipline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\final_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122CF6E-52C6-4DFF-93A0-2C57BF14605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31108489-0644-4728-B983-894F70194412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="11520" windowWidth="29000" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="163">
   <si>
     <t>Individual</t>
   </si>
@@ -840,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,43 +2395,43 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
         <v>93</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
@@ -2439,87 +2439,87 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B145" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C145" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B146" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B147" t="s">
         <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
         <v>98</v>
       </c>
       <c r="C149" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
         <v>99</v>
       </c>
       <c r="C151" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -2527,21 +2527,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
@@ -2549,131 +2549,131 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
         <v>102</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
         <v>103</v>
       </c>
       <c r="C157" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B161" t="s">
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B163" t="s">
         <v>105</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B165" t="s">
         <v>106</v>
       </c>
       <c r="C165" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B166" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -2681,340 +2681,340 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
         <v>107</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B169" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B170" t="s">
         <v>108</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B171" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
         <v>109</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
         <v>110</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
         <v>111</v>
       </c>
       <c r="C176" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B177" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
         <v>112</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
         <v>113</v>
       </c>
       <c r="C180" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B182" t="s">
         <v>114</v>
       </c>
       <c r="C182" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
         <v>115</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B185" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B186" t="s">
         <v>116</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B188" t="s">
         <v>117</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B190" t="s">
         <v>118</v>
       </c>
       <c r="C190" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B192" t="s">
         <v>119</v>
       </c>
       <c r="C192" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B193" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B194" t="s">
         <v>120</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B195" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B196" t="s">
         <v>36</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -3022,32 +3022,32 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C199" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B200" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -3055,43 +3055,43 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B201" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B203" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B204" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -3110,109 +3110,109 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>36</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B211" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B212" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C212" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B213" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B214" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C214" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B215" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B216" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3231,43 +3231,43 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B217" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B218" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B219" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B220" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -3275,32 +3275,32 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B221" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B222" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B223" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B224" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
@@ -3319,21 +3319,21 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B225" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C225" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B226" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -3341,32 +3341,32 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B227" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B228" t="s">
         <v>145</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B229" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -3374,65 +3374,65 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B230" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B231" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C231" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B232" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B233" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C233" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B234" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B235" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -3440,10 +3440,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B236" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B237" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B238" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B239" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B240" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
@@ -3495,23 +3495,12 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B241" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C241" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>336</v>
-      </c>
-      <c r="B242" t="s">
-        <v>158</v>
-      </c>
-      <c r="C242" t="s">
         <v>1</v>
       </c>
     </row>
